--- a/Industry/201612-201908/HKD/MILLION/Analysis_134_21.2.1 - Beverages in 5-digit SITC Codes_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_134_21.2.1 - Beverages in 5-digit SITC Codes_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -24278,6 +24279,664 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9882.880999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8806.678</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6045.848</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8655.781999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4178.181</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-30.892</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1992.639</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2043.256</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1533.724</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2258.377</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.528</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1321.513</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-13.836</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.163</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23.201</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25.368</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.091</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31.629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1804.643</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1415.735</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-21.55</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1122.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1779.085</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.665</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1148.122</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.575</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.554</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27.479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5133.597</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4370.545</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-14.864</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2626.911</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3375.407</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-22.769</v>
+      </c>
+      <c r="H5" t="n">
+        <v>965.312</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-63.253</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51.944</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49.628</v>
+      </c>
+      <c r="L5" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>38.996</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23.104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="n">
+        <v>370.639</v>
+      </c>
+      <c r="C6" t="n">
+        <v>411.832</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>310.621</v>
+      </c>
+      <c r="F6" t="n">
+        <v>506.167</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.906</v>
+      </c>
+      <c r="H6" t="n">
+        <v>276.973</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-10.832</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.138</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="n">
+        <v>314.749</v>
+      </c>
+      <c r="C7" t="n">
+        <v>305.815</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.839</v>
+      </c>
+      <c r="E7" t="n">
+        <v>264.971</v>
+      </c>
+      <c r="F7" t="n">
+        <v>444.867</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45.469</v>
+      </c>
+      <c r="H7" t="n">
+        <v>256.332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.473</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.383</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="n">
+        <v>138.622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>127.119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-8.298</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88.572</v>
+      </c>
+      <c r="F8" t="n">
+        <v>135.933</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="H8" t="n">
+        <v>92.721</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.685</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.403</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31.786</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39.061</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.889</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.074</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62.655</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60.402</v>
+      </c>
+      <c r="H9" t="n">
+        <v>48.281</v>
+      </c>
+      <c r="I9" t="n">
+        <v>33.837</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="n">
+        <v>64.64100000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>51.363</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-20.542</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.429</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49.944</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2.761</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.131</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.417</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37.925</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.684</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.589</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.557</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.376</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.891</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-38.659</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="G12" t="n">
+        <v>115.217</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18.788</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-36.978</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-14.476</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.843</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="G14" t="n">
+        <v>65.76600000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-46.362</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
